--- a/每週買賣報表/權重買進/權重買進部位表2023-12-06.xlsx
+++ b/每週買賣報表/權重買進/權重買進部位表2023-12-06.xlsx
@@ -426,7 +426,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -434,7 +434,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -442,7 +442,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -450,7 +450,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -458,7 +458,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -466,7 +466,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -474,7 +474,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -482,7 +482,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -490,7 +490,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -498,7 +498,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="12" spans="1:2">
